--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Documents\GitHub\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,174 +19,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <x:si>
-    <x:t>Play</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
   </x:si>
   <x:si>
     <x:t>타워의 비용</x:t>
   </x:si>
   <x:si>
-    <x:t>타워 종류</x:t>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xp : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Level : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameTitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Money : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
   </x:si>
   <x:si>
     <x:t>Hp :</x:t>
   </x:si>
   <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
     <x:t>Korean</x:t>
   </x:si>
   <x:si>
-    <x:t>게임 종료</x:t>
+    <x:t>Xp 리셋하기</x:t>
   </x:si>
   <x:si>
     <x:t>Code</x:t>
   </x:si>
   <x:si>
-    <x:t>플럼타워디펜스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
     <x:t>환경 설정</x:t>
   </x:si>
   <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(총합)Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(게임에서 모은)Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구되는 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Explanation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
     <x:t>GameOver</x:t>
   </x:si>
   <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -268,7 +277,10 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="5">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -276,6 +288,9 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -940,320 +955,347 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C28"/>
+  <x:dimension ref="A1:C31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D8" activeCellId="0" sqref="D8:D8"/>
+      <x:selection activeCell="B25" activeCellId="0" sqref="B25:B25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="23.5" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="8.796875" style="2" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="23.69921875" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="3" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="3" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C2" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="3">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="3" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C3" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="3">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="3">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="3">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="3">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="3">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="3">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="3" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="3">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="3">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" s="3" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="3">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B13" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C13" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="3">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="3" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C14" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="3">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="3" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C15" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="3">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B16" s="3" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C16" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="3">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B17" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C17" s="3" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="3">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B18" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="3">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B19" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C19" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="3">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B20" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C20" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="3">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B21" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C21" s="3" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="3">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B22" s="3" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
+      <x:c r="C22" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="3">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B23" s="3" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C23" s="3" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="3">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B24" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C24" s="3" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="3">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B25" s="3" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C25" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="3">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B26" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C26" s="3" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="3">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B27" s="3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C27" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="3">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B28" s="3" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C28" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C3" s="2" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="2">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="2">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="2">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C7" s="2" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="2">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C9" s="2" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="2">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="2">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C11" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="2">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="3">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B29" s="3" t="s">
         <x:v>37</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="2">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="2">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C14" s="2" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="2">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="2">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="2">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="2">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="2">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="2">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="2">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="2">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="2">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" s="2">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="2">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="2">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="2">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:3">
-      <x:c r="A28"/>
-      <x:c r="B28"/>
-      <x:c r="C28"/>
+      <x:c r="C29" s="3" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="1"/>
+      <x:c r="B30" s="4"/>
+      <x:c r="C30" s="4"/>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="1"/>
+      <x:c r="B31" s="1"/>
+      <x:c r="C31" s="1"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -24,178 +24,178 @@
     <x:t>In_Game_Upgrade_Contents</x:t>
   </x:si>
   <x:si>
+    <x:t>타워의 비용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xp : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp :</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Level : </x:t>
+  </x:si>
+  <x:si>
     <x:t>타워, 자원, 패시브 선택</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Title</x:t>
   </x:si>
   <x:si>
-    <x:t>Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Money : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
   </x:si>
   <x:si>
     <x:t>인게임 증강체 제목</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameStart</x:t>
-  </x:si>
-  <x:si>
     <x:t>인게임 증강체 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -958,7 +958,7 @@
   <x:dimension ref="A1:C31"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B25" activeCellId="0" sqref="B25:B25"/>
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -970,24 +970,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>55</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C1" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="3" t="s">
-        <x:v>44</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C2" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -995,10 +995,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>32</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1006,10 +1006,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1017,10 +1017,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1028,10 +1028,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1039,10 +1039,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
-        <x:v>51</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1050,10 +1050,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C8" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1061,10 +1061,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1072,10 +1072,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="3" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1083,10 +1083,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1094,10 +1094,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1105,10 +1105,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C13" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1116,10 +1116,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C14" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1127,10 +1127,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C15" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1138,10 +1138,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="3" t="s">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C16" s="3" t="s">
-        <x:v>24</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1152,7 +1152,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1160,10 +1160,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="3" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C18" s="3" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1171,10 +1171,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C19" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1182,10 +1182,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C20" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1193,10 +1193,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1204,10 +1204,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C22" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1215,10 +1215,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="3" t="s">
-        <x:v>45</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1226,10 +1226,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C24" s="3" t="s">
-        <x:v>54</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1237,10 +1237,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C25" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1248,10 +1248,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="3" t="s">
-        <x:v>25</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C26" s="3" t="s">
-        <x:v>1</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1259,10 +1259,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C27" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1270,10 +1270,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C28" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1281,10 +1281,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="3" t="s">
-        <x:v>37</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C29" s="3" t="s">
-        <x:v>58</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -19,183 +19,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xp : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">범위 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 타입</x:t>
+  </x:si>
   <x:si>
     <x:t>In_Game_Upgrade_Contents</x:t>
   </x:si>
   <x:si>
-    <x:t>타워의 비용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
   </x:si>
   <x:si>
     <x:t>In_Game_Xp_Point</x:t>
   </x:si>
   <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
     <x:t>In_Game_Hp</x:t>
   </x:si>
   <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
+    <x:t xml:space="preserve">Level : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Money : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 데미지 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 레벨 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격 속도 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
   </x:si>
   <x:si>
     <x:t>Code</x:t>
   </x:si>
   <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
     <x:t>Hp :</x:t>
   </x:si>
   <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
   </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
+    <x:t>Target_Priority_Type</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -277,10 +331,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="5">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -288,9 +339,6 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -955,347 +1003,436 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C31"/>
+  <x:dimension ref="A1:C38"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B11" activeCellId="0" sqref="B11:B11"/>
+    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C34" activeCellId="0" sqref="C34:C34"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.796875" style="2" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="23.69921875" style="2" customWidth="1"/>
+    <x:col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="23.69921875" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="2">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="2">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="2">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="2">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="2">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="2">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="2">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="2">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="2">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="2">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="2">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="2">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="2">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="2">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="2">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="2">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="2">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="2">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="2">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
+      <x:c r="B27" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="2">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="2">
         <x:v>27</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:3">
-      <x:c r="A2" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C2" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3" s="3">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B3" s="3" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C3" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3">
-      <x:c r="A4" s="3">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B29" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="2">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="2">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3">
-      <x:c r="A5" s="3">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
+      <x:c r="C31" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="2">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="2">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="2">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="2">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="2">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="2">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
-      <x:c r="A6" s="3">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3">
-      <x:c r="A7" s="3">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8" s="3">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3">
-      <x:c r="A9" s="3">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="3" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10" s="3">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="3" t="s">
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="2">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3">
-      <x:c r="A11" s="3">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3">
-      <x:c r="A12" s="3">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B12" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C12" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3">
-      <x:c r="A13" s="3">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B13" s="3" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C13" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="3">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B14" s="3" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C14" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="3">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B15" s="3" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C15" s="3" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="3">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B16" s="3" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C16" s="3" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="3">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B17" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C17" s="3" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="3">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B18" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C18" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3">
-      <x:c r="A19" s="3">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B19" s="3" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C19" s="3" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3">
-      <x:c r="A20" s="3">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B20" s="3" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C20" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" s="3">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B21" s="3" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C21" s="3" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3">
-      <x:c r="A22" s="3">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B22" s="3" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C22" s="3" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3">
-      <x:c r="A23" s="3">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B23" s="3" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C23" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:3">
-      <x:c r="A24" s="3">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B24" s="3" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C24" s="3" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3">
-      <x:c r="A25" s="3">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B25" s="3" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C25" s="3" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:3">
-      <x:c r="A26" s="3">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B26" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C26" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" s="3">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B27" s="3" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C27" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:3">
-      <x:c r="A28" s="3">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="B28" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C28" s="3" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="A29" s="3">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="B29" s="3" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C29" s="3" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:3">
-      <x:c r="A30" s="1"/>
-      <x:c r="B30" s="4"/>
-      <x:c r="C30" s="4"/>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="A31" s="1"/>
-      <x:c r="B31" s="1"/>
-      <x:c r="C31" s="1"/>
+      <x:c r="C38" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,237 +19,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
   <x:si>
     <x:t>PAUSE</x:t>
   </x:si>
   <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade</x:t>
   </x:si>
   <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">범위 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
   </x:si>
   <x:si>
     <x:t>Tower_Resource_Passive_Select</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 데미지 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 레벨 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격 속도 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>범위 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
   </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>Target_Priority_Type</x:t>
+    <x:t>몬스터UI표시</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1003,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C38"/>
+  <x:dimension ref="A1:C43"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C34" activeCellId="0" sqref="C34:C34"/>
+    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1018,10 +1048,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
         <x:v>68</x:v>
@@ -1029,13 +1059,13 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1043,10 +1073,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1054,10 +1084,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1065,10 +1095,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1076,10 +1106,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1087,10 +1117,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1098,10 +1128,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1109,10 +1139,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1120,10 +1150,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1131,10 +1161,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1142,10 +1172,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1153,10 +1183,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1164,10 +1194,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1175,10 +1205,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1186,10 +1216,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1197,10 +1227,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1208,10 +1238,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1219,10 +1249,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1230,10 +1260,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1241,10 +1271,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1252,10 +1282,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1263,10 +1293,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1274,10 +1304,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1285,10 +1315,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1296,10 +1326,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1307,10 +1337,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1318,10 +1348,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1329,10 +1359,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1340,10 +1370,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1351,10 +1381,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1362,10 +1392,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1373,10 +1403,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1384,10 +1414,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1395,10 +1425,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1406,10 +1436,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1417,10 +1447,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1428,10 +1458,65 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="2">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
         <x:v>62</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="2">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="2">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="2">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="2">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,54 +19,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
   <x:si>
     <x:t>StringUI</x:t>
   </x:si>
   <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
   </x:si>
   <x:si>
     <x:t>인게임 증강체 설명</x:t>
   </x:si>
   <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
     <x:t>인게임 증강체 제목</x:t>
   </x:si>
   <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
     <x:t>Stage_Start</x:t>
   </x:si>
   <x:si>
-    <x:t>우선적 선택 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
     <x:t>Main_Menu</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
+    <x:t>Tower_Move</x:t>
   </x:si>
   <x:si>
     <x:t>Tower_Level</x:t>
@@ -75,139 +135,118 @@
     <x:t>Game_End</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
   </x:si>
   <x:si>
     <x:t>int</x:t>
   </x:si>
   <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
     <x:t>효과음</x:t>
   </x:si>
   <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
+    <x:t>게임시작</x:t>
   </x:si>
   <x:si>
     <x:t>선택하기</x:t>
   </x:si>
   <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
     <x:t>Xp 리셋하기</x:t>
   </x:si>
   <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
     <x:t>확장하기</x:t>
   </x:si>
   <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
     <x:t>돌아가기</x:t>
   </x:si>
   <x:si>
     <x:t>Pause</x:t>
   </x:si>
   <x:si>
-    <x:t>우선적 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
     <x:t>Resume</x:t>
   </x:si>
   <x:si>
-    <x:t>PAUSE</x:t>
+    <x:t>String</x:t>
   </x:si>
   <x:si>
     <x:t>강화 제목</x:t>
   </x:si>
   <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
     <x:t>강화 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>환경설정</x:t>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
   </x:si>
   <x:si>
     <x:t>Expand</x:t>
   </x:si>
   <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">요구되는 Xp </x:t>
@@ -216,70 +255,28 @@
     <x:t>GameOver</x:t>
   </x:si>
   <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>범위 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
     <x:t>Hp : {0} / {1}</x:t>
   </x:si>
   <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>몬스터UI표시</x:t>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1035,8 +1032,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C43"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
+    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1048,24 +1045,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1073,10 +1070,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1084,10 +1081,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1095,10 +1092,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1106,10 +1103,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1117,10 +1114,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1128,10 +1125,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1139,10 +1136,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1150,7 +1147,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
         <x:v>78</x:v>
@@ -1161,10 +1158,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1172,10 +1169,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="C12" s="2" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1183,10 +1180,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1194,10 +1191,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1205,10 +1202,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1216,10 +1213,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1227,10 +1224,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1238,10 +1235,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1249,10 +1246,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1260,10 +1257,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1271,10 +1268,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1282,10 +1279,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1293,10 +1290,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1304,10 +1301,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1315,10 +1312,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1326,10 +1323,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1337,10 +1334,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1348,10 +1345,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1359,10 +1356,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1370,10 +1367,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1381,10 +1378,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1392,10 +1389,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1403,10 +1400,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1414,10 +1411,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1425,10 +1422,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1436,10 +1433,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1447,10 +1444,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1458,10 +1455,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1469,10 +1466,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1480,10 +1477,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1491,10 +1488,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1502,10 +1499,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1513,10 +1510,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -21,52 +21,253 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
     <x:t>In_Game_Upgrade_Title</x:t>
   </x:si>
   <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
+    <x:t>Upgrade_Contents</x:t>
   </x:si>
   <x:si>
     <x:t>타워, 자원, 패시브 카테고리</x:t>
@@ -75,208 +276,7 @@
     <x:t>PLUM TOWER DEFESNSE</x:t>
   </x:si>
   <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
     <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1032,8 +1032,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C43"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E25" activeCellId="0" sqref="E25:E25"/>
+    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C20" activeCellId="0" sqref="C20:C20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1045,10 +1045,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
         <x:v>73</x:v>
@@ -1056,13 +1056,13 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1070,10 +1070,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1081,10 +1081,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1092,10 +1092,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1103,10 +1103,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1114,10 +1114,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1125,10 +1125,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1136,10 +1136,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1147,10 +1147,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1158,10 +1158,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1169,10 +1169,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1180,10 +1180,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1191,10 +1191,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1202,10 +1202,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1213,10 +1213,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1224,10 +1224,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1235,10 +1235,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1246,10 +1246,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1257,10 +1257,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1268,10 +1268,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1279,10 +1279,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1290,10 +1290,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1301,10 +1301,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1312,10 +1312,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1323,10 +1323,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1334,10 +1334,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1345,10 +1345,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1356,10 +1356,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1367,10 +1367,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1378,10 +1378,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1389,10 +1389,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1400,10 +1400,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1411,10 +1411,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1422,10 +1422,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1433,10 +1433,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1444,10 +1444,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1455,10 +1455,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1466,10 +1466,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1477,10 +1477,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1488,10 +1488,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1499,10 +1499,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1510,10 +1510,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -19,7 +19,163 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
   <x:si>
     <x:t>강화</x:t>
   </x:si>
@@ -27,256 +183,103 @@
     <x:t>Xp</x:t>
   </x:si>
   <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
   </x:si>
   <x:si>
     <x:t>StringUI</x:t>
   </x:si>
   <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
     <x:t>GameOver</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">요구되는 Xp </x:t>
   </x:si>
   <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
   </x:si>
   <x:si>
     <x:t>뒤로가기</x:t>
   </x:si>
   <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
+    <x:t>게임 종료</x:t>
   </x:si>
   <x:si>
     <x:t>환경 설정</x:t>
   </x:si>
   <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
     <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1030,10 +1033,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C43"/>
+  <x:dimension ref="A1:C44"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C20" activeCellId="0" sqref="C20:C20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C40" activeCellId="0" sqref="C40:C40"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1045,24 +1048,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1070,10 +1073,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1081,10 +1084,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1092,10 +1095,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1103,10 +1106,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1114,10 +1117,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1125,10 +1128,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1136,10 +1139,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1147,10 +1150,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1158,10 +1161,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1169,10 +1172,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1180,10 +1183,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1191,10 +1194,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1202,10 +1205,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1213,10 +1216,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1224,10 +1227,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1235,10 +1238,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1246,10 +1249,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1257,10 +1260,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1268,10 +1271,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1279,10 +1282,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1290,10 +1293,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1301,10 +1304,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1312,10 +1315,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1323,10 +1326,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1334,10 +1337,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1345,10 +1348,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1356,10 +1359,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1367,10 +1370,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1378,10 +1381,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1389,10 +1392,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1400,10 +1403,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1411,10 +1414,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1422,10 +1425,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1433,10 +1436,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1444,10 +1447,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1455,10 +1458,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1466,10 +1469,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1477,10 +1480,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1488,10 +1491,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1499,10 +1502,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1510,10 +1513,21 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="2">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C44" s="2" t="s">
+        <x:v>49</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -19,218 +19,260 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
   <x:si>
     <x:t>타워 업그레이드 : {0}</x:t>
   </x:si>
   <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Upgrade_Select</x:t>
   </x:si>
   <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
+    <x:t>타워 데미지 : {0}</x:t>
   </x:si>
   <x:si>
     <x:t>Tower_Demolish</x:t>
   </x:si>
   <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
     <x:t>PLUM TOWER DEFESNSE</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Contents</x:t>
   </x:si>
   <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
     <x:t>In_Game_Xp_Point</x:t>
   </x:si>
   <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
     <x:t>In_Game_Upgrade_Title</x:t>
   </x:si>
   <x:si>
@@ -240,46 +282,22 @@
     <x:t>Select_Target_Priority</x:t>
   </x:si>
   <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -381,7 +399,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -464,7 +481,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -499,7 +515,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -544,7 +559,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -588,7 +602,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -673,7 +686,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -694,7 +706,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -725,7 +736,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1033,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C44"/>
+  <x:dimension ref="A1:C47"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C40" activeCellId="0" sqref="C40:C40"/>
+    <x:sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B46" activeCellId="0" sqref="B46:B46"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1048,24 +1058,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1073,10 +1083,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1084,10 +1094,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1098,7 +1108,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1106,10 +1116,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1117,10 +1127,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1128,10 +1138,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1139,10 +1149,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1150,10 +1160,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1161,10 +1171,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1172,10 +1182,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1183,10 +1193,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1194,10 +1204,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1205,10 +1215,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1216,10 +1226,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1227,10 +1237,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1238,10 +1248,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1252,7 +1262,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1260,10 +1270,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1271,10 +1281,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1282,10 +1292,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1293,10 +1303,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1304,10 +1314,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1315,10 +1325,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1326,10 +1336,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1337,10 +1347,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1348,10 +1358,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1359,10 +1369,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1370,10 +1380,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1381,7 +1391,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
         <x:v>44</x:v>
@@ -1392,10 +1402,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1403,10 +1413,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1414,10 +1424,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1425,10 +1435,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1436,10 +1446,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1447,10 +1457,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1458,10 +1468,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1469,10 +1479,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1480,10 +1490,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1491,10 +1501,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1502,10 +1512,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1513,10 +1523,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1527,7 +1537,40 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="2">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B45" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C45" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:3">
+      <x:c r="A46" s="2">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B46" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C46" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:3">
+      <x:c r="A47" s="2">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C47" s="2" t="s">
+        <x:v>90</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,188 +19,263 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+  <x:si>
+    <x:t>+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Secod_Low_Cost_Toer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade</x:t>
   </x:si>
   <x:si>
-    <x:t>String</x:t>
+    <x:t>확장하기</x:t>
   </x:si>
   <x:si>
     <x:t>시작하기</x:t>
   </x:si>
   <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
+    <x:t>Back</x:t>
   </x:si>
   <x:si>
     <x:t>몬스터UI표시</x:t>
   </x:si>
   <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
   </x:si>
   <x:si>
     <x:t>환경설정</x:t>
   </x:si>
   <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>배경음악</x:t>
   </x:si>
   <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
     <x:t>In_Game_Upgrade_Contents</x:t>
   </x:si>
   <x:si>
@@ -210,94 +285,31 @@
     <x:t>Tower_Resource_Passive_Select</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
     <x:t>PLUM TOWER DEFESNSE</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Contents</x:t>
   </x:si>
   <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
     <x:t>타워, 자원, 패시브 카테고리</x:t>
   </x:si>
   <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
     <x:t>In_Game_Upgrade_Title</x:t>
   </x:si>
   <x:si>
     <x:t>Target_Priority_String</x:t>
   </x:si>
   <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
     <x:t>Select_Target_Priority</x:t>
   </x:si>
   <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove</x:t>
+    <x:t>Treasure_Low_Cost_Tower</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -379,7 +391,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -387,6 +399,9 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -399,6 +414,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -481,6 +497,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -515,6 +532,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -559,6 +577,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -602,6 +621,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -686,6 +706,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -706,6 +727,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -736,6 +758,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1043,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C47"/>
+  <x:dimension ref="A1:C50"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B46" activeCellId="0" sqref="B46:B46"/>
+    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C51" activeCellId="0" sqref="C51:C51"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1058,24 +1081,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1083,10 +1106,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1094,10 +1117,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1105,10 +1128,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1116,10 +1139,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1127,10 +1150,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1138,10 +1161,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C8" s="2" t="s">
-        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1149,10 +1172,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1160,10 +1183,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1171,10 +1194,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1182,10 +1205,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1193,10 +1216,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1204,10 +1227,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1215,10 +1238,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1226,10 +1249,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1237,10 +1260,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1248,10 +1271,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1259,10 +1282,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1270,10 +1293,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1281,10 +1304,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1292,10 +1315,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1303,10 +1326,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1314,10 +1337,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1325,10 +1348,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1336,10 +1359,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1347,10 +1370,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1358,10 +1381,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1369,10 +1392,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1380,10 +1403,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1391,10 +1414,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1402,10 +1425,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1413,10 +1436,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1424,10 +1447,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1435,10 +1458,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1446,10 +1469,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1457,10 +1480,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1468,10 +1491,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1479,10 +1502,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1490,10 +1513,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1501,10 +1524,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1512,10 +1535,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>73</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1523,10 +1546,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1534,10 +1557,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1545,10 +1568,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1556,10 +1579,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1567,10 +1590,43 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" s="2">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B48" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C48" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="2">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C49" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3">
+      <x:c r="A50" s="2">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C50" s="3" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -19,297 +19,303 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터가 침입했습니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Intrusion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
   <x:si>
     <x:t>+{0}</x:t>
   </x:si>
   <x:si>
-    <x:t>Treasure_Secod_Low_Cost_Toer</x:t>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
   </x:si>
   <x:si>
     <x:t>Treasure_Money</x:t>
   </x:si>
   <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Upgrade_Title</x:t>
   </x:si>
   <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
     <x:t>타워 데미지 : {0}</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
     <x:t>Tower_Attack</x:t>
   </x:si>
   <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
     <x:t>타워 부수기 : {0}</x:t>
   </x:si>
   <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>Obstacle_Remove</x:t>
   </x:si>
   <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
     <x:t>타워, 자원, 패시브 선택</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
+    <x:t>Hp : {0} / {1}</x:t>
   </x:si>
   <x:si>
     <x:t>Show_Monster_UI</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
   </x:si>
   <x:si>
     <x:t>PLUM TOWER DEFESNSE</x:t>
   </x:si>
   <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Low_Cost_Tower</x:t>
+    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1066,10 +1072,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C50"/>
+  <x:dimension ref="A1:C51"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C51" activeCellId="0" sqref="C51:C51"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1081,24 +1087,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1106,10 +1112,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1117,10 +1123,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1128,10 +1134,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1139,10 +1145,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1150,10 +1156,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1161,10 +1167,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1172,10 +1178,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1183,10 +1189,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1194,10 +1200,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1205,10 +1211,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1216,10 +1222,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1227,10 +1233,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1238,10 +1244,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1249,10 +1255,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1260,10 +1266,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1271,10 +1277,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1282,10 +1288,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1293,10 +1299,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1304,10 +1310,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1315,10 +1321,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1326,10 +1332,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1337,10 +1343,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1348,10 +1354,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1359,10 +1365,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1370,10 +1376,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1381,10 +1387,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1392,10 +1398,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1403,10 +1409,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1414,10 +1420,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1425,10 +1431,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1436,10 +1442,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1447,10 +1453,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1458,10 +1464,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1469,10 +1475,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1480,10 +1486,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1491,10 +1497,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1502,10 +1508,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1513,10 +1519,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1524,10 +1530,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1535,10 +1541,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1546,10 +1552,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1557,10 +1563,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1568,10 +1574,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1579,10 +1585,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1590,10 +1596,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1601,10 +1607,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -1612,10 +1618,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -1623,10 +1629,21 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:3">
+      <x:c r="A51" s="2">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,108 +19,312 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패시브</x:t>
+  </x:si>
   <x:si>
     <x:t>In_Game_Upgrade_Contents</x:t>
   </x:si>
   <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Intrusion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
+    <x:t>효과음</x:t>
   </x:si>
   <x:si>
     <x:t>몬스터가 침입했습니다!</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Resource_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
   </x:si>
   <x:si>
     <x:t>In_Game_Upgrade_Title</x:t>
@@ -129,193 +333,7 @@
     <x:t>Treasure_Low_Cost_Tower</x:t>
   </x:si>
   <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Intrusion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
+    <x:t>Upgrade_Tower_Category</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1072,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C51"/>
+  <x:dimension ref="A1:C54"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    <x:sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C52" activeCellId="0" sqref="C52:C52"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1087,24 +1105,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1112,10 +1130,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1123,10 +1141,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1134,10 +1152,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1145,10 +1163,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1156,10 +1174,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1167,10 +1185,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1178,10 +1196,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1189,10 +1207,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1200,10 +1218,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1211,10 +1229,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1222,10 +1240,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1233,10 +1251,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1244,10 +1262,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1255,7 +1273,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
         <x:v>22</x:v>
@@ -1266,10 +1284,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1277,10 +1295,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1288,10 +1306,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1299,10 +1317,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1310,10 +1328,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1321,7 +1339,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
         <x:v>27</x:v>
@@ -1332,10 +1350,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1343,10 +1361,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1357,7 +1375,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1365,10 +1383,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1376,10 +1394,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1387,10 +1405,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1398,10 +1416,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1412,7 +1430,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1420,10 +1438,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1431,10 +1449,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1442,10 +1460,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1453,10 +1471,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1464,10 +1482,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1475,10 +1493,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1486,10 +1504,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1500,7 +1518,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1508,10 +1526,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1519,10 +1537,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1530,10 +1548,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1541,10 +1559,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1552,10 +1570,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1563,10 +1581,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1574,10 +1592,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1585,10 +1603,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1596,10 +1614,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1607,10 +1625,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -1618,10 +1636,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -1629,10 +1647,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -1640,10 +1658,43 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:3">
+      <x:c r="A52" s="2">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:3">
+      <x:c r="A53" s="2">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B53" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C53" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3">
+      <x:c r="A54" s="2">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C54" s="2" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -19,321 +19,339 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식생 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터가 침입했습니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Vegetation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Resource_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Intrusion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move_Mouse_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
   <x:si>
     <x:t>Game_Title</x:t>
   </x:si>
   <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
     <x:t>Tower_Cost</x:t>
   </x:si>
   <x:si>
-    <x:t>Xp_Reset</x:t>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
   </x:si>
   <x:si>
     <x:t>타워 이동 : {0}</x:t>
   </x:si>
   <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
+    <x:t>Stage_Level</x:t>
   </x:si>
   <x:si>
     <x:t>Stage_Start</x:t>
   </x:si>
   <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">요구되는 Xp </x:t>
   </x:si>
   <x:si>
-    <x:t>Game_Over</x:t>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키보드 화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Tower_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move_Keyboard_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패시브</x:t>
   </x:si>
   <x:si>
     <x:t>자원</x:t>
   </x:si>
   <x:si>
-    <x:t>패시브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Intrusion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
     <x:t>Xp</x:t>
   </x:si>
   <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터가 침입했습니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Resource_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Low_Cost_Tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Tower_Category</x:t>
+    <x:t>마우스 화면 이동</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1090,10 +1108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C54"/>
+  <x:dimension ref="A1:C57"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C52" activeCellId="0" sqref="C52:C52"/>
+    <x:sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="I46" activeCellId="0" sqref="I46:I46"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1105,24 +1123,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1130,10 +1148,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1141,10 +1159,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1152,10 +1170,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1163,10 +1181,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1174,10 +1192,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1185,10 +1203,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1196,10 +1214,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1207,10 +1225,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1218,10 +1236,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1229,10 +1247,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1240,10 +1258,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1251,10 +1269,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1262,10 +1280,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1273,10 +1291,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1284,10 +1302,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1295,10 +1313,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1306,10 +1324,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1317,10 +1335,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1328,10 +1346,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1339,10 +1357,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1350,10 +1368,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1361,10 +1379,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1372,10 +1390,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1383,10 +1401,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1394,10 +1412,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1405,10 +1423,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1416,10 +1434,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1427,10 +1445,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1438,10 +1456,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1449,10 +1467,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1460,10 +1478,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1474,7 +1492,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1482,10 +1500,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1493,10 +1511,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1504,10 +1522,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1515,10 +1533,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1526,10 +1544,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1537,10 +1555,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1548,10 +1566,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1559,10 +1577,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1570,10 +1588,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1581,10 +1599,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1592,10 +1610,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1603,10 +1621,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1614,10 +1632,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1625,10 +1643,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -1636,10 +1654,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -1647,10 +1665,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -1658,10 +1676,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -1669,10 +1687,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -1680,10 +1698,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
@@ -1691,10 +1709,43 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:3">
+      <x:c r="A55" s="2">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56" s="2">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C56" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:3">
+      <x:c r="A57" s="2">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B57" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C57" s="2" t="s">
+        <x:v>93</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,339 +19,345 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
+  <x:si>
+    <x:t>게임 승리!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터가 침입했습니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식생 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>+{0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
   <x:si>
     <x:t>강화 제목</x:t>
   </x:si>
   <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식생 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
+    <x:t>Treasure_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Vegetation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
   </x:si>
   <x:si>
     <x:t>Music</x:t>
   </x:si>
   <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
     <x:t>뒤로가기</x:t>
   </x:si>
   <x:si>
-    <x:t>Expand</x:t>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
   </x:si>
   <x:si>
     <x:t>환경설정</x:t>
   </x:si>
   <x:si>
-    <x:t>제거하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터가 침입했습니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Vegetation</x:t>
+    <x:t>Treasure_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move_Keyboard_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Tower_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Clear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">요구되는 Xp </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키보드 화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Resource_Category</x:t>
   </x:si>
   <x:si>
+    <x:t>Upgrade_Passive_Category</x:t>
+  </x:si>
+  <x:si>
     <x:t>In_Game_Upgrade_Contents</x:t>
   </x:si>
   <x:si>
-    <x:t>Upgrade_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Second_Low_Cost_Tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move_Mouse_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Intrusion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Contents</x:t>
   </x:si>
   <x:si>
-    <x:t>Monster_Intrusion</x:t>
-  </x:si>
-  <x:si>
     <x:t>타워, 자원, 패시브 카테고리</x:t>
   </x:si>
   <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move_Mouse_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">요구되는 Xp </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키보드 화면 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Low_Cost_Tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Tower_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move_Keyboard_Screen</x:t>
+    <x:t>패시브</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
   </x:si>
   <x:si>
     <x:t>효과음</x:t>
   </x:si>
   <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패시브</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
     <x:t>ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 화면 이동</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -456,7 +462,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -539,7 +544,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -574,7 +578,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -619,7 +622,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -663,7 +665,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -748,7 +749,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -769,7 +769,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -800,7 +799,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1108,10 +1106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C57"/>
+  <x:dimension ref="A1:C58"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I46" activeCellId="0" sqref="I46:I46"/>
+    <x:sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C58" activeCellId="0" sqref="C58:C58"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -1123,24 +1121,24 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1148,10 +1146,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1159,10 +1157,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1170,10 +1168,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1181,10 +1179,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1192,10 +1190,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1203,10 +1201,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1214,10 +1212,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1225,10 +1223,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1236,10 +1234,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1247,10 +1245,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1258,10 +1256,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1272,7 +1270,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1280,10 +1278,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1291,10 +1289,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1302,7 +1300,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
         <x:v>72</x:v>
@@ -1313,10 +1311,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1324,10 +1322,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1335,10 +1333,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1346,7 +1344,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
         <x:v>73</x:v>
@@ -1357,7 +1355,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
         <x:v>92</x:v>
@@ -1368,10 +1366,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1379,10 +1377,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1390,10 +1388,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1401,10 +1399,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1412,10 +1410,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1423,10 +1421,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1434,10 +1432,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1445,10 +1443,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1456,10 +1454,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1467,10 +1465,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1478,10 +1476,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1489,10 +1487,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1500,10 +1498,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1511,10 +1509,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1522,10 +1520,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1533,10 +1531,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1544,10 +1542,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1555,10 +1553,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1566,10 +1564,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1577,10 +1575,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
         <x:v>49</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1588,10 +1586,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1599,10 +1597,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1610,10 +1608,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1621,10 +1619,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1632,10 +1630,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1643,10 +1641,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -1654,10 +1652,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -1665,10 +1663,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -1676,10 +1674,10 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -1687,10 +1685,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -1698,10 +1696,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
@@ -1709,10 +1707,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -1720,10 +1718,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
@@ -1731,10 +1729,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
@@ -1742,10 +1740,21 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
         <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:3">
+      <x:c r="A58" s="2">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B58" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C58" s="2" t="s">
+        <x:v>0</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Design/DataTable/StringUI.xlsx
+++ b/Design/DataTable/StringUI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="9816" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="9768" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,7 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="124">
+  <x:si>
+    <x:t>Speed_Buff_Tower_Ability_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소(&lt;color=red&gt;N&lt;/color&gt;)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Intrusion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move_Mouse_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
   <x:si>
     <x:t>Sound</x:t>
   </x:si>
@@ -30,331 +60,337 @@
     <x:t>배경음악</x:t>
   </x:si>
   <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
     <x:t>Korean</x:t>
   </x:si>
   <x:si>
+    <x:t>Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>식생 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 승리!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>Option</x:t>
   </x:si>
   <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 승리!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>식생 보기</x:t>
+    <x:t>+{0}</x:t>
   </x:si>
   <x:si>
     <x:t>선택하기</x:t>
   </x:si>
   <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경 설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>뒤로가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경 설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>+{0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>뒤로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
     <x:t>PAUSE</x:t>
   </x:si>
   <x:si>
     <x:t>환경설정</x:t>
   </x:si>
   <x:si>
-    <x:t>제거취소(N)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move_Mouse_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Intrusion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Vegetation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hp : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초당 {0}데미지를 주는 디버프 영구부여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 내 타워들의 데미지 {0}만큼 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터가 침입했습니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Resource_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동(&lt;color=red&gt;M&lt;/color&gt;) : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기(&lt;color=red&gt;D&lt;/color&gt;) : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Tower_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Treasure_Low_Cost_Tower</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Move_Keyboard_Screen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워</x:t>
   </x:si>
   <x:si>
     <x:t>패시브</x:t>
   </x:si>
   <x:si>
-    <x:t>타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자원</x:t>
-  </x:si>
-  <x:si>
     <x:t>ID</x:t>
   </x:si>
   <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
     <x:t>강화</x:t>
   </x:si>
   <x:si>
-    <x:t>Treasure_Low_Cost_Tower</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Move_Keyboard_Screen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Tower_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Vegetation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터가 침입했습니다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Treasure_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
   </x:si>
   <x:si>
     <x:t>Treasure_Second_Low_Cost_Tower</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Resource_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Clear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마우스 화면 이동</x:t>
   </x:si>
   <x:si>
     <x:t>Level : {0}</x:t>
   </x:si>
   <x:si>
-    <x:t>In_Game_Hp</x:t>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
   </x:si>
   <x:si>
     <x:t>인게임 증강체 제목</x:t>
   </x:si>
   <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마우스 화면 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Clear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
     <x:t>타워 레벨 : {0}</x:t>
   </x:si>
   <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>키보드 화면 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GameOver</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격 속도 : {0}</x:t>
   </x:si>
   <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameOver</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>키보드 화면 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거하기(Y)</x:t>
+    <x:t>Poison_Tower_Damage_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드(&lt;color=red&gt;U&lt;/color&gt;) : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 범위 : {0}타일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적 이동속도 {0}% 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Electric_Tower_Enemy_Attack_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Attack_Buff_Tower_Ability_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Laser_Tower_Rate_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사거리 내 타워들의 공격속도 {0}만큼 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기(&lt;color=red&gt;Y&lt;/color&gt;)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hourglass_Tower_Reduced_Speed_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격받는 적의 수 : {0}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -486,7 +522,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -507,7 +542,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -528,7 +562,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -559,7 +592,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -590,7 +622,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -668,7 +699,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -703,7 +733,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -738,7 +767,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -783,7 +811,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -827,7 +854,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1174,39 +1200,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C58"/>
+  <x:dimension ref="A1:C64"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C47" activeCellId="0" sqref="C47:C47"/>
+    <x:sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A50" activeCellId="0" sqref="A50:A50"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="1" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="23.69921875" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="56.8984375" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -1214,10 +1240,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -1225,10 +1251,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -1236,10 +1262,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -1247,10 +1273,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -1258,10 +1284,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -1269,10 +1295,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -1280,10 +1306,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -1291,10 +1317,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -1302,10 +1328,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -1313,10 +1339,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1324,10 +1350,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -1335,10 +1361,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1349,7 +1375,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1357,10 +1383,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1368,10 +1394,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1379,10 +1405,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1390,10 +1416,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1401,10 +1427,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
@@ -1412,10 +1438,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1423,10 +1449,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
@@ -1434,10 +1460,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
@@ -1445,10 +1471,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
@@ -1456,10 +1482,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1467,10 +1493,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1478,10 +1504,10 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
@@ -1489,10 +1515,10 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1500,10 +1526,10 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C29" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
@@ -1511,10 +1537,10 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1522,10 +1548,10 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
@@ -1533,10 +1559,10 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
@@ -1544,10 +1570,10 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1555,10 +1581,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
@@ -1566,10 +1592,10 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
@@ -1577,10 +1603,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1588,10 +1614,10 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1599,10 +1625,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C38" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1610,10 +1636,10 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
@@ -1621,10 +1647,10 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B40" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C40" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
@@ -1632,10 +1658,10 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="B41" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C41" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1643,10 +1669,10 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
@@ -1654,10 +1680,10 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B43" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C43" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1665,10 +1691,10 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C44" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
@@ -1676,10 +1702,10 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
@@ -1687,10 +1713,10 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1698,10 +1724,10 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="B47" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1709,10 +1735,10 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C48" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
@@ -1720,10 +1746,10 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="B49" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C49" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
@@ -1731,10 +1757,10 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B50" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C50" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
@@ -1742,7 +1768,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B51" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C51" s="2" t="s">
         <x:v>59</x:v>
@@ -1753,10 +1779,10 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B52" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C52" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -1764,10 +1790,10 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B53" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C53" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
@@ -1775,10 +1801,10 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B54" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -1786,10 +1812,10 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="B55" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C55" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
@@ -1797,10 +1823,10 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B56" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C56" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
@@ -1808,10 +1834,10 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>108</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
@@ -1822,7 +1848,73 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:3">
+      <x:c r="A59" s="2">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C59" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:3">
+      <x:c r="A60" s="2">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B60" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C60" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:3">
+      <x:c r="A61" s="2">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B61" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C61" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:3">
+      <x:c r="A62" s="2">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B62" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C62" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:3">
+      <x:c r="A63" s="2">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C63" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:3">
+      <x:c r="A64" s="2">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C64" s="2" t="s">
+        <x:v>115</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
